--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonbo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142940\Desktop\GitHub\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE95D9-6CFD-4204-BDF1-E5BCD15B5F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C882A350-6ECD-4D78-90E5-C36AECD01A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="17880" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="78">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>Jon</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Added extra center vertices to be able to stretch the UV to fit with the Shader</t>
   </si>
 </sst>
 </file>
@@ -294,7 +300,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1202,25 +1208,25 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="49.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="7" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="88.7265625" customWidth="1"/>
-    <col min="12" max="25" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="88.7109375" customWidth="1"/>
+    <col min="12" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="58.9" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1259,7 +1265,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="52.15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1294,7 +1300,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1321,7 +1327,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1376,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1419,7 +1425,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25">
       <c r="A6" s="8"/>
       <c r="B6" s="26" t="s">
         <v>36</v>
@@ -1457,7 +1463,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25">
       <c r="A7" s="8"/>
       <c r="B7" s="26" t="s">
         <v>35</v>
@@ -1495,7 +1501,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
         <v>40</v>
@@ -1533,7 +1539,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25">
       <c r="A9" s="8"/>
       <c r="B9" s="27" t="s">
         <v>31</v>
@@ -1571,7 +1577,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25">
       <c r="A10" s="8"/>
       <c r="B10" s="27" t="s">
         <v>37</v>
@@ -1609,7 +1615,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25">
       <c r="A11" s="8"/>
       <c r="B11" s="26" t="s">
         <v>38</v>
@@ -1647,7 +1653,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25">
       <c r="A12" s="8"/>
       <c r="B12" s="27" t="s">
         <v>39</v>
@@ -1685,7 +1691,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
         <v>41</v>
@@ -1731,7 +1737,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1">
       <c r="A14" s="53"/>
       <c r="B14" s="55" t="s">
         <v>48</v>
@@ -1750,9 +1756,11 @@
         <v>0.25</v>
       </c>
       <c r="J14" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1768,7 +1776,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1">
       <c r="A15" s="53"/>
       <c r="B15" s="56" t="s">
         <v>49</v>
@@ -1787,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="1"/>
@@ -1805,7 +1813,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1">
       <c r="A16" s="53"/>
       <c r="B16" s="56" t="s">
         <v>50</v>
@@ -1842,7 +1850,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
         <v>51</v>
@@ -1861,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="63" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="1"/>
@@ -1879,7 +1887,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="27" t="s">
         <v>52</v>
@@ -1897,7 +1905,9 @@
       <c r="I18" s="18">
         <v>1</v>
       </c>
-      <c r="J18" s="63"/>
+      <c r="J18" s="63" t="s">
+        <v>76</v>
+      </c>
       <c r="K18" s="19"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1914,7 +1924,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="27" t="s">
         <v>53</v>
@@ -1949,7 +1959,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="27" t="s">
         <v>54</v>
@@ -1984,7 +1994,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="27" t="s">
         <v>55</v>
@@ -2021,7 +2031,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
         <v>42</v>
@@ -2067,7 +2077,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="56" t="s">
         <v>56</v>
@@ -2104,7 +2114,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="56" t="s">
         <v>57</v>
@@ -2141,7 +2151,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="56" t="s">
         <v>58</v>
@@ -2178,7 +2188,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
         <v>59</v>
@@ -2215,7 +2225,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
         <v>43</v>
@@ -2261,7 +2271,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
         <v>60</v>
@@ -2298,7 +2308,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="56" t="s">
         <v>61</v>
@@ -2335,7 +2345,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="56" t="s">
         <v>62</v>
@@ -2372,7 +2382,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="56" t="s">
         <v>63</v>
@@ -2409,7 +2419,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
         <v>44</v>
@@ -2455,7 +2465,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="56" t="s">
         <v>64</v>
@@ -2492,7 +2502,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="56" t="s">
         <v>65</v>
@@ -2529,7 +2539,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="56" t="s">
         <v>66</v>
@@ -2566,7 +2576,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="56" t="s">
         <v>67</v>
@@ -2603,7 +2613,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
         <v>45</v>
@@ -2649,7 +2659,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="56" t="s">
         <v>54</v>
@@ -2686,7 +2696,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
         <v>68</v>
@@ -2723,7 +2733,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
         <v>58</v>
@@ -2760,7 +2770,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="56" t="s">
         <v>69</v>
@@ -2797,7 +2807,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="64" t="s">
         <v>70</v>
@@ -2832,7 +2842,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="20" t="s">
         <v>71</v>
@@ -2869,7 +2879,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1">
       <c r="A44" s="37"/>
       <c r="B44" s="38" t="s">
         <v>46</v>
@@ -2915,7 +2925,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="56" t="s">
         <v>73</v>
@@ -2952,7 +2962,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1">
       <c r="A46" s="37"/>
       <c r="B46" s="38" t="s">
         <v>47</v>
@@ -2998,7 +3008,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="56" t="s">
         <v>72</v>
@@ -3035,7 +3045,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="56" t="s">
         <v>74</v>
@@ -3072,7 +3082,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="56" t="s">
         <v>39</v>
@@ -3109,7 +3119,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1">
       <c r="A50" s="41"/>
       <c r="B50" s="42" t="s">
         <v>24</v>
@@ -3148,7 +3158,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="36" t="s">
         <v>26</v>
@@ -3187,7 +3197,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3214,7 +3224,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3241,7 +3251,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3269,7 +3279,7 @@
       <c r="Y54" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:I14 A27:I27 A32:I32 A37:I37 A45 C45:I45 A46:I46 K13:K51 A47:A49 C47:I49">
+  <conditionalFormatting sqref="A5:I14 K13:K51 A27:I27 A32:I32 A37:I37 A45 C45:I45 A46:I46 A47:A49 C47:I49">
     <cfRule type="expression" dxfId="16" priority="9">
       <formula>REGEXMATCH($J5,".*Complete.*")</formula>
     </cfRule>
@@ -3359,62 +3369,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1">
       <c r="A11" s="49" t="s">
         <v>27</v>
       </c>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142940\Desktop\GitHub\DocumentationDecryptionDystopia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C882A350-6ECD-4D78-90E5-C36AECD01A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CB4186-FACE-4032-A579-14B85D4294E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Added extra center vertices to be able to stretch the UV to fit with the Shader</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1207,26 +1210,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="7" width="12.1796875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="88.7109375" customWidth="1"/>
-    <col min="12" max="25" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="11" max="11" width="88.7265625" customWidth="1"/>
+    <col min="12" max="25" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.9" customHeight="1">
+    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1265,7 +1268,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.15" customHeight="1">
+    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1300,7 +1303,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1327,7 +1330,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1376,7 +1379,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1425,7 +1428,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="26" t="s">
         <v>36</v>
@@ -1463,7 +1466,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="26" t="s">
         <v>35</v>
@@ -1501,7 +1504,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
         <v>40</v>
@@ -1539,7 +1542,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="27" t="s">
         <v>31</v>
@@ -1577,7 +1580,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="27" t="s">
         <v>37</v>
@@ -1615,7 +1618,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="26" t="s">
         <v>38</v>
@@ -1653,7 +1656,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="27" t="s">
         <v>39</v>
@@ -1691,7 +1694,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
         <v>41</v>
@@ -1717,9 +1720,8 @@
         <f>SUM(I14:I21)</f>
         <v>7.75</v>
       </c>
-      <c r="J13" s="58" t="str">
-        <f>IF(COUNTIF(J14:J21, "Not Started") = COUNT(J14:J21), "Complete", "Not Started")</f>
-        <v>Not Started</v>
+      <c r="J13" s="58" t="s">
+        <v>78</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="1"/>
@@ -1737,7 +1739,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="53"/>
       <c r="B14" s="55" t="s">
         <v>48</v>
@@ -1776,7 +1778,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="53"/>
       <c r="B15" s="56" t="s">
         <v>49</v>
@@ -1813,7 +1815,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="53"/>
       <c r="B16" s="56" t="s">
         <v>50</v>
@@ -1850,7 +1852,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
         <v>51</v>
@@ -1887,7 +1889,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="27" t="s">
         <v>52</v>
@@ -1924,7 +1926,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="27" t="s">
         <v>53</v>
@@ -1942,7 +1944,9 @@
       <c r="I19" s="18">
         <v>0.5</v>
       </c>
-      <c r="J19" s="63"/>
+      <c r="J19" s="63" t="s">
+        <v>76</v>
+      </c>
       <c r="K19" s="19"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1959,7 +1963,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="27" t="s">
         <v>54</v>
@@ -1977,7 +1981,9 @@
       <c r="I20" s="18">
         <v>1</v>
       </c>
-      <c r="J20" s="63"/>
+      <c r="J20" s="63" t="s">
+        <v>76</v>
+      </c>
       <c r="K20" s="19"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1994,7 +2000,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="27" t="s">
         <v>55</v>
@@ -2013,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="63" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="1"/>
@@ -2031,7 +2037,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
         <v>42</v>
@@ -2057,9 +2063,8 @@
         <f>SUM(I23:I26)</f>
         <v>8</v>
       </c>
-      <c r="J22" s="58" t="str">
-        <f>IF(COUNTIF(J23:J26, "Not Started") = COUNT(J23:J26), "Complete", "Not Started")</f>
-        <v>Not Started</v>
+      <c r="J22" s="58" t="s">
+        <v>78</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="1"/>
@@ -2077,7 +2082,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="56" t="s">
         <v>56</v>
@@ -2096,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="60" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="1"/>
@@ -2114,7 +2119,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="56" t="s">
         <v>57</v>
@@ -2151,7 +2156,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="56" t="s">
         <v>58</v>
@@ -2188,7 +2193,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
         <v>59</v>
@@ -2225,7 +2230,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
         <v>43</v>
@@ -2271,7 +2276,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
         <v>60</v>
@@ -2308,7 +2313,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="56" t="s">
         <v>61</v>
@@ -2345,7 +2350,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="56" t="s">
         <v>62</v>
@@ -2382,7 +2387,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="56" t="s">
         <v>63</v>
@@ -2419,7 +2424,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
         <v>44</v>
@@ -2465,7 +2470,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="56" t="s">
         <v>64</v>
@@ -2502,7 +2507,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="56" t="s">
         <v>65</v>
@@ -2539,7 +2544,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="56" t="s">
         <v>66</v>
@@ -2576,7 +2581,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="56" t="s">
         <v>67</v>
@@ -2613,7 +2618,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
         <v>45</v>
@@ -2659,7 +2664,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="56" t="s">
         <v>54</v>
@@ -2696,7 +2701,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
         <v>68</v>
@@ -2733,7 +2738,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
         <v>58</v>
@@ -2770,7 +2775,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="56" t="s">
         <v>69</v>
@@ -2807,7 +2812,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="64" t="s">
         <v>70</v>
@@ -2842,7 +2847,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="20" t="s">
         <v>71</v>
@@ -2879,7 +2884,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="37"/>
       <c r="B44" s="38" t="s">
         <v>46</v>
@@ -2925,7 +2930,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13"/>
       <c r="B45" s="56" t="s">
         <v>73</v>
@@ -2962,7 +2967,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="37"/>
       <c r="B46" s="38" t="s">
         <v>47</v>
@@ -3008,7 +3013,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
       <c r="B47" s="56" t="s">
         <v>72</v>
@@ -3045,7 +3050,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="56" t="s">
         <v>74</v>
@@ -3082,7 +3087,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="56" t="s">
         <v>39</v>
@@ -3119,7 +3124,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="41"/>
       <c r="B50" s="42" t="s">
         <v>24</v>
@@ -3158,7 +3163,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13"/>
       <c r="B51" s="36" t="s">
         <v>26</v>
@@ -3197,7 +3202,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3224,7 +3229,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3251,7 +3256,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3369,62 +3374,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="49" t="s">
         <v>27</v>
       </c>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CB4186-FACE-4032-A579-14B85D4294E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D907A85-3AA8-4324-8A49-6E7BA11A276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1721,7 +1721,7 @@
         <v>7.75</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="1"/>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="1"/>
@@ -2138,7 +2138,7 @@
         <v>0.5</v>
       </c>
       <c r="J24" s="60" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="1"/>
@@ -2175,7 +2175,7 @@
         <v>1.5</v>
       </c>
       <c r="J25" s="60" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="K25" s="19"/>
       <c r="L25" s="1"/>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D907A85-3AA8-4324-8A49-6E7BA11A276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE00E06-4A14-416F-907C-888C38360929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2212,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="60" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="1"/>
@@ -2295,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="1"/>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE00E06-4A14-416F-907C-888C38360929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960759D-D152-4551-9D8A-94E28307A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Map Editor was easier to make AI Pathfinding easier.</t>
+  </si>
+  <si>
+    <t>Map Editor {{ADDED}}</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1554,7 +1560,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="31">
-        <f>E32</f>
+        <f>E33</f>
         <v>0</v>
       </c>
       <c r="F9" s="10"/>
@@ -1592,7 +1598,7 @@
         <v>75</v>
       </c>
       <c r="E10" s="31">
-        <f>E37</f>
+        <f>E38</f>
         <v>0</v>
       </c>
       <c r="F10" s="34"/>
@@ -1630,7 +1636,7 @@
         <v>75</v>
       </c>
       <c r="E11" s="31">
-        <f>E44</f>
+        <f>E45</f>
         <v>0</v>
       </c>
       <c r="F11" s="34"/>
@@ -1668,7 +1674,7 @@
         <v>75</v>
       </c>
       <c r="E12" s="31">
-        <f>E46</f>
+        <f>E47</f>
         <v>0.5</v>
       </c>
       <c r="F12" s="34"/>
@@ -2064,7 +2070,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="1"/>
@@ -2175,7 +2181,7 @@
         <v>1.5</v>
       </c>
       <c r="J25" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K25" s="19"/>
       <c r="L25" s="1"/>
@@ -2240,7 +2246,7 @@
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="39">
-        <f>SUM(E28:E31)</f>
+        <f>SUM(E28:E32)</f>
         <v>0</v>
       </c>
       <c r="F27" s="57">
@@ -2253,11 +2259,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="59">
-        <f>SUM(I28:I31)</f>
-        <v>9</v>
+        <f>SUM(I28:I32)</f>
+        <v>17</v>
       </c>
       <c r="J27" s="58" t="str">
-        <f>IF(COUNTIF(J28:J31, "Not Started") = COUNT(J28:J31), "Complete", "Not Started")</f>
+        <f>IF(COUNTIF(J28:J32, "Not Started") = COUNT(J28:J32), "Complete", "Not Started")</f>
         <v>Not Started</v>
       </c>
       <c r="K27" s="21"/>
@@ -2316,7 +2322,7 @@
     <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="56" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>29</v>
@@ -2329,12 +2335,14 @@
       <c r="G29" s="16"/>
       <c r="H29" s="17"/>
       <c r="I29" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J29" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2353,7 +2361,7 @@
     <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>29</v>
@@ -2366,7 +2374,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="17"/>
       <c r="I30" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="60" t="s">
         <v>21</v>
@@ -2390,7 +2398,7 @@
     <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>29</v>
@@ -2403,7 +2411,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="17"/>
       <c r="I31" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="60" t="s">
         <v>21</v>
@@ -2425,36 +2433,27 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="39">
-        <f>SUM(E33:E36)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="57">
-        <v>45425</v>
-      </c>
-      <c r="G32" s="57">
-        <v>45432</v>
-      </c>
-      <c r="H32" s="58">
-        <v>0</v>
-      </c>
-      <c r="I32" s="59">
-        <f>SUM(I33:I36)</f>
-        <v>7.5</v>
-      </c>
-      <c r="J32" s="58" t="str">
-        <f>IF(COUNTIF(J33:J36, "Not Started") = COUNT(J33:J36), "Complete", "Not Started")</f>
-        <v>Not Started</v>
-      </c>
-      <c r="K32" s="21"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18">
+        <v>2</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="19"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2471,27 +2470,36 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18">
-        <v>2</v>
-      </c>
-      <c r="J33" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="19"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="39">
+        <f>SUM(E34:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="57">
+        <v>45425</v>
+      </c>
+      <c r="G33" s="57">
+        <v>45432</v>
+      </c>
+      <c r="H33" s="58">
+        <v>0</v>
+      </c>
+      <c r="I33" s="59">
+        <f>SUM(I34:I37)</f>
+        <v>7.5</v>
+      </c>
+      <c r="J33" s="58" t="str">
+        <f>IF(COUNTIF(J34:J37, "Not Started") = COUNT(J34:J37), "Complete", "Not Started")</f>
+        <v>Not Started</v>
+      </c>
+      <c r="K33" s="21"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2510,10 +2518,10 @@
     <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>75</v>
@@ -2523,7 +2531,7 @@
       <c r="G34" s="16"/>
       <c r="H34" s="17"/>
       <c r="I34" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="60" t="s">
         <v>21</v>
@@ -2547,7 +2555,7 @@
     <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>31</v>
@@ -2560,7 +2568,7 @@
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
       <c r="I35" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J35" s="60" t="s">
         <v>21</v>
@@ -2582,9 +2590,9 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>31</v>
@@ -2597,7 +2605,7 @@
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
       <c r="I36" s="18">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J36" s="60" t="s">
         <v>21</v>
@@ -2619,36 +2627,27 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="39">
-        <f>SUM(E38:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="57">
-        <v>45432</v>
-      </c>
-      <c r="G37" s="57">
-        <v>45439</v>
-      </c>
-      <c r="H37" s="58">
-        <v>0</v>
-      </c>
-      <c r="I37" s="59">
-        <f>SUM(I38:I43)</f>
-        <v>8.5</v>
-      </c>
-      <c r="J37" s="58" t="str">
-        <f>IF(COUNTIF(J38:J43, "Not Started") = COUNT(J38:J43), "Complete", "Not Started")</f>
-        <v>Not Started</v>
-      </c>
-      <c r="K37" s="21"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18">
+        <v>4</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="19"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2665,27 +2664,36 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18">
-        <v>1</v>
-      </c>
-      <c r="J38" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="19"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="40"/>
+      <c r="E38" s="39">
+        <f>SUM(E39:E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="57">
+        <v>45432</v>
+      </c>
+      <c r="G38" s="57">
+        <v>45439</v>
+      </c>
+      <c r="H38" s="58">
+        <v>0</v>
+      </c>
+      <c r="I38" s="59">
+        <f>SUM(I39:I44)</f>
+        <v>8.5</v>
+      </c>
+      <c r="J38" s="58" t="str">
+        <f>IF(COUNTIF(J39:J44, "Not Started") = COUNT(J39:J44), "Complete", "Not Started")</f>
+        <v>Not Started</v>
+      </c>
+      <c r="K38" s="21"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -2704,7 +2712,7 @@
     <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>31</v>
@@ -2741,7 +2749,7 @@
     <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>31</v>
@@ -2754,7 +2762,7 @@
       <c r="G40" s="16"/>
       <c r="H40" s="17"/>
       <c r="I40" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J40" s="60" t="s">
         <v>21</v>
@@ -2776,9 +2784,9 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="56" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>31</v>
@@ -2791,7 +2799,7 @@
       <c r="G41" s="16"/>
       <c r="H41" s="17"/>
       <c r="I41" s="18">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J41" s="60" t="s">
         <v>21</v>
@@ -2814,11 +2822,11 @@
     </row>
     <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
-      <c r="B42" s="64" t="s">
-        <v>70</v>
+      <c r="B42" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>75</v>
@@ -2830,7 +2838,9 @@
       <c r="I42" s="18">
         <v>2</v>
       </c>
-      <c r="J42" s="60"/>
+      <c r="J42" s="60" t="s">
+        <v>21</v>
+      </c>
       <c r="K42" s="19"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2849,8 +2859,8 @@
     </row>
     <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
-      <c r="B43" s="20" t="s">
-        <v>71</v>
+      <c r="B43" s="64" t="s">
+        <v>70</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>32</v>
@@ -2865,9 +2875,7 @@
       <c r="I43" s="18">
         <v>2</v>
       </c>
-      <c r="J43" s="60" t="s">
-        <v>21</v>
-      </c>
+      <c r="J43" s="60"/>
       <c r="K43" s="19"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2885,36 +2893,27 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="39">
-        <f>SUM(E45:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="57">
-        <v>45439</v>
-      </c>
-      <c r="G44" s="57">
-        <v>45446</v>
-      </c>
-      <c r="H44" s="58">
-        <v>0</v>
-      </c>
-      <c r="I44" s="59">
-        <f>SUM(I45:I45)</f>
-        <v>8</v>
-      </c>
-      <c r="J44" s="58" t="str">
-        <f>IF(COUNTIF(J45:J45, "Not Started") = COUNT(J45:J45), "Complete", "Not Started")</f>
-        <v>Not Started</v>
-      </c>
-      <c r="K44" s="21"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="18">
+        <v>2</v>
+      </c>
+      <c r="J44" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="19"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2931,27 +2930,36 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="13"/>
-      <c r="B45" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="18">
+      <c r="A45" s="37"/>
+      <c r="B45" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="39">
+        <f>SUM(E46:E46)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="57">
+        <v>45439</v>
+      </c>
+      <c r="G45" s="57">
+        <v>45446</v>
+      </c>
+      <c r="H45" s="58">
+        <v>0</v>
+      </c>
+      <c r="I45" s="59">
+        <f>SUM(I46:I46)</f>
         <v>8</v>
       </c>
-      <c r="J45" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="19"/>
+      <c r="J45" s="58" t="str">
+        <f>IF(COUNTIF(J46:J46, "Not Started") = COUNT(J46:J46), "Complete", "Not Started")</f>
+        <v>Not Started</v>
+      </c>
+      <c r="K45" s="21"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -2968,36 +2976,27 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="37"/>
-      <c r="B46" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="39">
-        <f>SUM(E47:E51)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F46" s="57">
-        <v>45446</v>
-      </c>
-      <c r="G46" s="57">
-        <v>45453</v>
-      </c>
-      <c r="H46" s="58">
-        <v>0</v>
-      </c>
-      <c r="I46" s="59">
-        <f>SUM(I47:I51)</f>
+      <c r="A46" s="13"/>
+      <c r="B46" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18">
         <v>8</v>
       </c>
-      <c r="J46" s="58" t="str">
-        <f>IF(COUNTIF(J47:J51, "Not Started") = COUNT(J47:J51), "Complete", "Not Started")</f>
-        <v>Not Started</v>
-      </c>
-      <c r="K46" s="21"/>
+      <c r="J46" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="19"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3014,27 +3013,36 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="18">
-        <v>2</v>
-      </c>
-      <c r="J47" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="19"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="40"/>
+      <c r="E47" s="39">
+        <f>SUM(E48:E52)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="57">
+        <v>45446</v>
+      </c>
+      <c r="G47" s="57">
+        <v>45453</v>
+      </c>
+      <c r="H47" s="58">
+        <v>0</v>
+      </c>
+      <c r="I47" s="59">
+        <f>SUM(I48:I52)</f>
+        <v>8</v>
+      </c>
+      <c r="J47" s="58" t="str">
+        <f>IF(COUNTIF(J48:J52, "Not Started") = COUNT(J48:J52), "Complete", "Not Started")</f>
+        <v>Not Started</v>
+      </c>
+      <c r="K47" s="21"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3053,7 +3061,7 @@
     <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>34</v>
@@ -3090,7 +3098,7 @@
     <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="56" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>34</v>
@@ -3103,7 +3111,7 @@
       <c r="G49" s="16"/>
       <c r="H49" s="17"/>
       <c r="I49" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" s="60" t="s">
         <v>21</v>
@@ -3125,29 +3133,27 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="F50" s="46">
-        <v>45453</v>
-      </c>
-      <c r="G50" s="46">
-        <v>45460</v>
-      </c>
-      <c r="H50" s="47"/>
-      <c r="I50" s="48"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="18">
+        <v>4</v>
+      </c>
       <c r="J50" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="K50" s="21"/>
+      <c r="K50" s="19"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3164,29 +3170,29 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
-      <c r="B51" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15">
+      <c r="A51" s="41"/>
+      <c r="B51" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45">
         <v>0.25</v>
       </c>
-      <c r="F51" s="16">
-        <v>45404</v>
-      </c>
-      <c r="G51" s="16">
+      <c r="F51" s="46">
+        <v>45453</v>
+      </c>
+      <c r="G51" s="46">
         <v>45460</v>
       </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="18"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="48"/>
       <c r="J51" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="K51" s="19"/>
+      <c r="K51" s="21"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -3202,18 +3208,30 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="13"/>
+      <c r="B52" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="F52" s="16">
+        <v>45404</v>
+      </c>
+      <c r="G52" s="16">
+        <v>45460</v>
+      </c>
+      <c r="H52" s="17"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="19"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -3283,8 +3301,35 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:I14 K13:K51 A27:I27 A32:I32 A37:I37 A45 C45:I45 A46:I46 A47:A49 C47:I49">
+  <conditionalFormatting sqref="A5:I14 A33:I33 A38:I38 A46 C46:I46 A47:I47 A48:A50 C48:I50 K13:K52 A27:I27">
     <cfRule type="expression" dxfId="16" priority="9">
       <formula>REGEXMATCH($J5,".*Complete.*")</formula>
     </cfRule>
@@ -3312,7 +3357,7 @@
       <formula>REGEXMATCH($J17,".*Cancelled.*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J51">
+  <conditionalFormatting sqref="J5:J52">
     <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
@@ -3329,7 +3374,7 @@
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5 A15:A21 C15:I21 A22:I22 A23:A26 C23:I26 A28:A31 C28:I31 A33:A36 C33:I36 A38:A42 C38:I42 A43:I44 A50:I51">
+  <conditionalFormatting sqref="K5 A15:A21 C15:I21 A22:I22 A23:A26 C23:I26 A28:A32 C28:I32 A34:A37 C34:I37 A39:A43 C39:I43 A44:I45 A51:I52">
     <cfRule type="expression" dxfId="3" priority="18">
       <formula>REGEXMATCH($J5,".*Complete.*")</formula>
     </cfRule>
@@ -3344,7 +3389,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J51" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Not Started,In Progress,Complete,Overdue,Cancelled"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3358,7 +3403,7 @@
           <x14:formula1>
             <xm:f>Data!$A$2:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>C14:C21 C6:C12 C23:C26 C28:C31 C33:C36 C38:C43 C51 C45 C47:C49</xm:sqref>
+          <xm:sqref>C14:C21 C6:C12 C23:C26 C28:C32 C34:C37 C39:C44 C52 C46 C48:C50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960759D-D152-4551-9D8A-94E28307A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FEB88E-1A59-4574-BEC5-8E22D042EAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2338,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>79</v>
@@ -3329,7 +3329,7 @@
       <c r="Y55" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:I14 A33:I33 A38:I38 A46 C46:I46 A47:I47 A48:A50 C48:I50 K13:K52 A27:I27">
+  <conditionalFormatting sqref="A5:I14 K13:K52 A27:I27 A33:I33 A38:I38 A46 C46:I46 A47:I47 A48:A50 C48:I50">
     <cfRule type="expression" dxfId="16" priority="9">
       <formula>REGEXMATCH($J5,".*Complete.*")</formula>
     </cfRule>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FEB88E-1A59-4574-BEC5-8E22D042EAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391C156-7E0A-4D39-AF36-6FFBD355C8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Documentation\DocumentationDecryptionDystopia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391C156-7E0A-4D39-AF36-6FFBD355C8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32BA09C-B976-4617-BADD-BE6E957942B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6020" yWindow="-21080" windowWidth="31610" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>Map Editor {{ADDED}}</t>
+  </si>
+  <si>
+    <t>Pathfinding took longer than expected. Nothing went wrong in particular, just underestimated time required</t>
+  </si>
+  <si>
+    <t>Overdue</t>
+  </si>
+  <si>
+    <t>Delayed due to Pathfinding</t>
   </si>
 </sst>
 </file>
@@ -1216,26 +1225,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="49.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="7" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="88.7265625" customWidth="1"/>
-    <col min="12" max="25" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="88.7109375" customWidth="1"/>
+    <col min="12" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1274,7 +1283,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1309,7 +1318,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1336,7 +1345,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1394,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1434,7 +1443,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="26" t="s">
         <v>36</v>
@@ -1472,7 +1481,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="26" t="s">
         <v>35</v>
@@ -1510,7 +1519,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
         <v>40</v>
@@ -1548,7 +1557,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="27" t="s">
         <v>31</v>
@@ -1586,7 +1595,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="27" t="s">
         <v>37</v>
@@ -1624,7 +1633,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="26" t="s">
         <v>38</v>
@@ -1662,7 +1671,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="27" t="s">
         <v>39</v>
@@ -1700,7 +1709,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
         <v>41</v>
@@ -1745,7 +1754,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="55" t="s">
         <v>48</v>
@@ -1784,7 +1793,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="56" t="s">
         <v>49</v>
@@ -1821,7 +1830,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="56" t="s">
         <v>50</v>
@@ -1858,7 +1867,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
         <v>51</v>
@@ -1895,7 +1904,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="27" t="s">
         <v>52</v>
@@ -1932,7 +1941,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="27" t="s">
         <v>53</v>
@@ -1969,7 +1978,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="27" t="s">
         <v>54</v>
@@ -2006,7 +2015,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="27" t="s">
         <v>55</v>
@@ -2043,7 +2052,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
         <v>42</v>
@@ -2088,7 +2097,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="56" t="s">
         <v>56</v>
@@ -2125,7 +2134,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="56" t="s">
         <v>57</v>
@@ -2162,7 +2171,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="56" t="s">
         <v>58</v>
@@ -2199,7 +2208,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
         <v>59</v>
@@ -2236,7 +2245,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
         <v>43</v>
@@ -2262,9 +2271,8 @@
         <f>SUM(I28:I32)</f>
         <v>17</v>
       </c>
-      <c r="J27" s="58" t="str">
-        <f>IF(COUNTIF(J28:J32, "Not Started") = COUNT(J28:J32), "Complete", "Not Started")</f>
-        <v>Not Started</v>
+      <c r="J27" s="58" t="s">
+        <v>78</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="1"/>
@@ -2282,7 +2290,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
         <v>60</v>
@@ -2301,9 +2309,11 @@
         <v>4</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2319,7 +2329,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="56" t="s">
         <v>80</v>
@@ -2358,7 +2368,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="56" t="s">
         <v>61</v>
@@ -2377,9 +2387,11 @@
         <v>2</v>
       </c>
       <c r="J30" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="19"/>
+        <v>82</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2395,7 +2407,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="56" t="s">
         <v>62</v>
@@ -2414,9 +2426,11 @@
         <v>1</v>
       </c>
       <c r="J31" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="19"/>
+        <v>82</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2432,7 +2446,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
         <v>63</v>
@@ -2451,9 +2465,11 @@
         <v>2</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2469,7 +2485,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
         <v>44</v>
@@ -2515,7 +2531,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="56" t="s">
         <v>64</v>
@@ -2552,7 +2568,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="56" t="s">
         <v>65</v>
@@ -2589,7 +2605,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="56" t="s">
         <v>66</v>
@@ -2626,7 +2642,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="56" t="s">
         <v>67</v>
@@ -2663,7 +2679,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
         <v>45</v>
@@ -2709,7 +2725,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
         <v>54</v>
@@ -2746,7 +2762,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
         <v>68</v>
@@ -2783,7 +2799,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="56" t="s">
         <v>58</v>
@@ -2820,7 +2836,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="56" t="s">
         <v>69</v>
@@ -2857,7 +2873,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="64" t="s">
         <v>70</v>
@@ -2892,7 +2908,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="20" t="s">
         <v>71</v>
@@ -2929,7 +2945,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37"/>
       <c r="B45" s="38" t="s">
         <v>46</v>
@@ -2975,7 +2991,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="56" t="s">
         <v>73</v>
@@ -3012,7 +3028,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
       <c r="B47" s="38" t="s">
         <v>47</v>
@@ -3058,7 +3074,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="56" t="s">
         <v>72</v>
@@ -3095,7 +3111,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="56" t="s">
         <v>74</v>
@@ -3132,7 +3148,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="56" t="s">
         <v>39</v>
@@ -3169,7 +3185,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="42" t="s">
         <v>24</v>
@@ -3208,7 +3224,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="36" t="s">
         <v>26</v>
@@ -3247,7 +3263,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3274,7 +3290,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3301,7 +3317,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3419,62 +3435,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>27</v>
       </c>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32BA09C-B976-4617-BADD-BE6E957942B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0384E557-E6F8-4E36-96C2-7130A605AF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6020" yWindow="-21080" windowWidth="31610" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="84">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2426,11 +2426,9 @@
         <v>1</v>
       </c>
       <c r="J31" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="K31" s="19"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2465,11 +2463,9 @@
         <v>2</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="K32" s="19"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0384E557-E6F8-4E36-96C2-7130A605AF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51200FB5-5B1D-403E-AE5D-8A2CF83F2FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6020" yWindow="-21080" windowWidth="31610" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="930" windowWidth="31605" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="88">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>Delayed due to Pathfinding</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>No longer requires since scale of meshes is closer to normal</t>
+  </si>
+  <si>
+    <t>Must be redone</t>
+  </si>
+  <si>
+    <t>Delayed due to Programming taking longer than exxpected</t>
   </si>
 </sst>
 </file>
@@ -318,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -387,6 +399,13 @@
       <sz val="10"/>
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -580,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,6 +788,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2272,7 +2300,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="1"/>
@@ -2387,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="60" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>83</v>
@@ -2507,11 +2535,12 @@
         <f>SUM(I34:I37)</f>
         <v>7.5</v>
       </c>
-      <c r="J33" s="58" t="str">
-        <f>IF(COUNTIF(J34:J37, "Not Started") = COUNT(J34:J37), "Complete", "Not Started")</f>
-        <v>Not Started</v>
-      </c>
-      <c r="K33" s="21"/>
+      <c r="J33" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" s="67" t="s">
+        <v>87</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2529,7 +2558,7 @@
     </row>
     <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="65" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2546,9 +2575,11 @@
         <v>2</v>
       </c>
       <c r="J34" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="K34" s="66" t="s">
+        <v>85</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2583,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="60" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="1"/>
@@ -2620,9 +2651,11 @@
         <v>0.5</v>
       </c>
       <c r="J36" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="19"/>
+        <v>82</v>
+      </c>
+      <c r="K36" s="66" t="s">
+        <v>86</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2657,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="J37" s="60" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K37" s="19"/>
       <c r="L37" s="1"/>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\documentation\DocumentationDecryptionDystopia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51200FB5-5B1D-403E-AE5D-8A2CF83F2FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C6D6B7-1492-4BBC-A43A-EC86166EB3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="930" windowWidth="31605" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="88">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -305,9 +305,6 @@
     <t>Pathfinding took longer than expected. Nothing went wrong in particular, just underestimated time required</t>
   </si>
   <si>
-    <t>Overdue</t>
-  </si>
-  <si>
     <t>Delayed due to Pathfinding</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>Delayed due to Programming taking longer than exxpected</t>
+  </si>
+  <si>
+    <t>Scope Changed, only one attack animation, bring back other two if time during polish</t>
   </si>
 </sst>
 </file>
@@ -1253,26 +1253,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="7" width="12.1796875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="88.7109375" customWidth="1"/>
-    <col min="12" max="25" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="11" max="11" width="88.7265625" customWidth="1"/>
+    <col min="12" max="25" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1311,7 +1311,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1346,7 +1346,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1471,7 +1471,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="26" t="s">
         <v>36</v>
@@ -1509,7 +1509,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="26" t="s">
         <v>35</v>
@@ -1547,7 +1547,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
         <v>40</v>
@@ -1585,7 +1585,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="27" t="s">
         <v>31</v>
@@ -1623,7 +1623,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="27" t="s">
         <v>37</v>
@@ -1661,7 +1661,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="26" t="s">
         <v>38</v>
@@ -1699,7 +1699,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="27" t="s">
         <v>39</v>
@@ -1737,7 +1737,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
         <v>41</v>
@@ -1782,7 +1782,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="53"/>
       <c r="B14" s="55" t="s">
         <v>48</v>
@@ -1821,7 +1821,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="53"/>
       <c r="B15" s="56" t="s">
         <v>49</v>
@@ -1858,7 +1858,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="53"/>
       <c r="B16" s="56" t="s">
         <v>50</v>
@@ -1895,7 +1895,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
         <v>51</v>
@@ -1932,7 +1932,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="27" t="s">
         <v>52</v>
@@ -1969,7 +1969,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="27" t="s">
         <v>53</v>
@@ -2006,7 +2006,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="27" t="s">
         <v>54</v>
@@ -2043,7 +2043,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="27" t="s">
         <v>55</v>
@@ -2080,7 +2080,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
         <v>42</v>
@@ -2125,7 +2125,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="56" t="s">
         <v>56</v>
@@ -2162,7 +2162,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="56" t="s">
         <v>57</v>
@@ -2199,7 +2199,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="56" t="s">
         <v>58</v>
@@ -2236,7 +2236,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
         <v>59</v>
@@ -2273,7 +2273,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
         <v>43</v>
@@ -2318,7 +2318,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
         <v>60</v>
@@ -2357,7 +2357,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="56" t="s">
         <v>80</v>
@@ -2396,7 +2396,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="56" t="s">
         <v>61</v>
@@ -2418,7 +2418,7 @@
         <v>76</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2435,7 +2435,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="56" t="s">
         <v>62</v>
@@ -2472,7 +2472,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
         <v>63</v>
@@ -2509,7 +2509,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
         <v>44</v>
@@ -2536,10 +2536,10 @@
         <v>7.5</v>
       </c>
       <c r="J33" s="58" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K33" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2556,7 +2556,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="65" t="s">
         <v>64</v>
@@ -2575,10 +2575,10 @@
         <v>2</v>
       </c>
       <c r="J34" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="66" t="s">
         <v>84</v>
-      </c>
-      <c r="K34" s="66" t="s">
-        <v>85</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2595,7 +2595,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="56" t="s">
         <v>65</v>
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="1"/>
@@ -2632,7 +2632,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="56" t="s">
         <v>66</v>
@@ -2651,10 +2651,10 @@
         <v>0.5</v>
       </c>
       <c r="J36" s="60" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2671,7 +2671,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="56" t="s">
         <v>67</v>
@@ -2690,9 +2690,11 @@
         <v>4</v>
       </c>
       <c r="J37" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2708,7 +2710,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
         <v>45</v>
@@ -2734,9 +2736,8 @@
         <f>SUM(I39:I44)</f>
         <v>8.5</v>
       </c>
-      <c r="J38" s="58" t="str">
-        <f>IF(COUNTIF(J39:J44, "Not Started") = COUNT(J39:J44), "Complete", "Not Started")</f>
-        <v>Not Started</v>
+      <c r="J38" s="58" t="s">
+        <v>78</v>
       </c>
       <c r="K38" s="21"/>
       <c r="L38" s="1"/>
@@ -2754,7 +2755,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
         <v>54</v>
@@ -2773,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="60" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K39" s="19"/>
       <c r="L39" s="1"/>
@@ -2791,7 +2792,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
         <v>68</v>
@@ -2810,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="60" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="1"/>
@@ -2828,7 +2829,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="56" t="s">
         <v>58</v>
@@ -2847,7 +2848,7 @@
         <v>0.5</v>
       </c>
       <c r="J41" s="60" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="1"/>
@@ -2865,7 +2866,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="56" t="s">
         <v>69</v>
@@ -2884,7 +2885,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="60" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="1"/>
@@ -2902,7 +2903,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="64" t="s">
         <v>70</v>
@@ -2937,7 +2938,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="20" t="s">
         <v>71</v>
@@ -2974,7 +2975,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="37"/>
       <c r="B45" s="38" t="s">
         <v>46</v>
@@ -3020,7 +3021,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
       <c r="B46" s="56" t="s">
         <v>73</v>
@@ -3057,7 +3058,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="37"/>
       <c r="B47" s="38" t="s">
         <v>47</v>
@@ -3103,7 +3104,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="56" t="s">
         <v>72</v>
@@ -3140,7 +3141,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="56" t="s">
         <v>74</v>
@@ -3177,7 +3178,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="56" t="s">
         <v>39</v>
@@ -3214,7 +3215,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="41"/>
       <c r="B51" s="42" t="s">
         <v>24</v>
@@ -3253,7 +3254,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13"/>
       <c r="B52" s="36" t="s">
         <v>26</v>
@@ -3292,7 +3293,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3319,7 +3320,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3346,7 +3347,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3464,62 +3465,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="49" t="s">
         <v>27</v>
       </c>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Documentation\DocumentationDecryptionDystopia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C6D6B7-1492-4BBC-A43A-EC86166EB3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39476A7-CDDD-47BD-976C-1A29250493C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4940" yWindow="-18380" windowWidth="31610" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="87">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>Added extra center vertices to be able to stretch the UV to fit with the Shader</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>Map Editor was easier to make AI Pathfinding easier.</t>
@@ -1253,26 +1250,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="49.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="7" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="88.7265625" customWidth="1"/>
-    <col min="12" max="25" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="88.7109375" customWidth="1"/>
+    <col min="12" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1311,7 +1308,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1346,7 +1343,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1373,7 +1370,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1422,7 +1419,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1471,7 +1468,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="26" t="s">
         <v>36</v>
@@ -1509,7 +1506,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="26" t="s">
         <v>35</v>
@@ -1547,7 +1544,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
         <v>40</v>
@@ -1585,7 +1582,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="27" t="s">
         <v>31</v>
@@ -1623,7 +1620,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="27" t="s">
         <v>37</v>
@@ -1661,7 +1658,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="26" t="s">
         <v>38</v>
@@ -1699,7 +1696,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="27" t="s">
         <v>39</v>
@@ -1737,7 +1734,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
         <v>41</v>
@@ -1782,7 +1779,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="55" t="s">
         <v>48</v>
@@ -1821,7 +1818,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="56" t="s">
         <v>49</v>
@@ -1858,7 +1855,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="56" t="s">
         <v>50</v>
@@ -1895,7 +1892,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
         <v>51</v>
@@ -1932,7 +1929,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="27" t="s">
         <v>52</v>
@@ -1969,7 +1966,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="27" t="s">
         <v>53</v>
@@ -2006,7 +2003,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="27" t="s">
         <v>54</v>
@@ -2043,7 +2040,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="27" t="s">
         <v>55</v>
@@ -2080,7 +2077,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
         <v>42</v>
@@ -2125,7 +2122,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="56" t="s">
         <v>56</v>
@@ -2162,7 +2159,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="56" t="s">
         <v>57</v>
@@ -2199,7 +2196,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="56" t="s">
         <v>58</v>
@@ -2236,7 +2233,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
         <v>59</v>
@@ -2273,7 +2270,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
         <v>43</v>
@@ -2318,7 +2315,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
         <v>60</v>
@@ -2340,7 +2337,7 @@
         <v>76</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2357,10 +2354,10 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>29</v>
@@ -2379,7 +2376,7 @@
         <v>76</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2396,7 +2393,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="56" t="s">
         <v>61</v>
@@ -2418,7 +2415,7 @@
         <v>76</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2435,7 +2432,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="56" t="s">
         <v>62</v>
@@ -2472,7 +2469,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
         <v>63</v>
@@ -2509,7 +2506,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
         <v>44</v>
@@ -2539,7 +2536,7 @@
         <v>76</v>
       </c>
       <c r="K33" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2556,7 +2553,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="65" t="s">
         <v>64</v>
@@ -2575,10 +2572,10 @@
         <v>2</v>
       </c>
       <c r="J34" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" s="66" t="s">
         <v>83</v>
-      </c>
-      <c r="K34" s="66" t="s">
-        <v>84</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2595,7 +2592,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="56" t="s">
         <v>65</v>
@@ -2632,7 +2629,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="56" t="s">
         <v>66</v>
@@ -2654,7 +2651,7 @@
         <v>76</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2671,7 +2668,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="56" t="s">
         <v>67</v>
@@ -2693,7 +2690,7 @@
         <v>76</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2710,7 +2707,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
         <v>45</v>
@@ -2737,7 +2734,7 @@
         <v>8.5</v>
       </c>
       <c r="J38" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K38" s="21"/>
       <c r="L38" s="1"/>
@@ -2755,7 +2752,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
         <v>54</v>
@@ -2792,7 +2789,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
         <v>68</v>
@@ -2829,7 +2826,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="56" t="s">
         <v>58</v>
@@ -2866,7 +2863,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="56" t="s">
         <v>69</v>
@@ -2885,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="1"/>
@@ -2903,7 +2900,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="64" t="s">
         <v>70</v>
@@ -2921,7 +2918,9 @@
       <c r="I43" s="18">
         <v>2</v>
       </c>
-      <c r="J43" s="60"/>
+      <c r="J43" s="60" t="s">
+        <v>76</v>
+      </c>
       <c r="K43" s="19"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2938,7 +2937,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="20" t="s">
         <v>71</v>
@@ -2957,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="60" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="1"/>
@@ -2975,7 +2974,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37"/>
       <c r="B45" s="38" t="s">
         <v>46</v>
@@ -3021,7 +3020,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="56" t="s">
         <v>73</v>
@@ -3058,7 +3057,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
       <c r="B47" s="38" t="s">
         <v>47</v>
@@ -3104,7 +3103,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="56" t="s">
         <v>72</v>
@@ -3141,7 +3140,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="56" t="s">
         <v>74</v>
@@ -3178,7 +3177,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="56" t="s">
         <v>39</v>
@@ -3215,7 +3214,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="42" t="s">
         <v>24</v>
@@ -3254,7 +3253,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="36" t="s">
         <v>26</v>
@@ -3293,7 +3292,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3320,7 +3319,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3347,7 +3346,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3465,62 +3464,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>27</v>
       </c>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\documentation\DocumentationDecryptionDystopia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39476A7-CDDD-47BD-976C-1A29250493C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF9F5EF-2BE4-4605-B372-924F55647241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4940" yWindow="-18380" windowWidth="31610" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="88">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Scope Changed, only one attack animation, bring back other two if time during polish</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1250,26 +1288,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="7" width="12.1796875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="88.7109375" customWidth="1"/>
-    <col min="12" max="25" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="11" max="11" width="88.7265625" customWidth="1"/>
+    <col min="12" max="25" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1308,7 +1346,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1343,7 +1381,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1370,7 +1408,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +1457,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1468,7 +1506,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="26" t="s">
         <v>36</v>
@@ -1506,7 +1544,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="26" t="s">
         <v>35</v>
@@ -1544,7 +1582,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
         <v>40</v>
@@ -1582,7 +1620,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="27" t="s">
         <v>31</v>
@@ -1620,7 +1658,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="27" t="s">
         <v>37</v>
@@ -1658,7 +1696,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="26" t="s">
         <v>38</v>
@@ -1696,7 +1734,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="27" t="s">
         <v>39</v>
@@ -1734,7 +1772,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
         <v>41</v>
@@ -1779,7 +1817,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="53"/>
       <c r="B14" s="55" t="s">
         <v>48</v>
@@ -1818,7 +1856,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="53"/>
       <c r="B15" s="56" t="s">
         <v>49</v>
@@ -1855,7 +1893,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="53"/>
       <c r="B16" s="56" t="s">
         <v>50</v>
@@ -1892,7 +1930,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
         <v>51</v>
@@ -1929,7 +1967,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="27" t="s">
         <v>52</v>
@@ -1966,7 +2004,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="27" t="s">
         <v>53</v>
@@ -2003,7 +2041,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="27" t="s">
         <v>54</v>
@@ -2040,7 +2078,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="27" t="s">
         <v>55</v>
@@ -2077,7 +2115,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
         <v>42</v>
@@ -2122,7 +2160,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="56" t="s">
         <v>56</v>
@@ -2159,7 +2197,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="56" t="s">
         <v>57</v>
@@ -2196,7 +2234,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="56" t="s">
         <v>58</v>
@@ -2233,7 +2271,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
         <v>59</v>
@@ -2270,7 +2308,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
         <v>43</v>
@@ -2315,7 +2353,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
         <v>60</v>
@@ -2354,7 +2392,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="56" t="s">
         <v>79</v>
@@ -2393,7 +2431,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="56" t="s">
         <v>61</v>
@@ -2432,7 +2470,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="56" t="s">
         <v>62</v>
@@ -2469,7 +2507,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
         <v>63</v>
@@ -2506,7 +2544,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
         <v>44</v>
@@ -2553,7 +2591,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="65" t="s">
         <v>64</v>
@@ -2592,7 +2630,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="56" t="s">
         <v>65</v>
@@ -2629,7 +2667,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="56" t="s">
         <v>66</v>
@@ -2668,7 +2706,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="56" t="s">
         <v>67</v>
@@ -2707,7 +2745,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
         <v>45</v>
@@ -2752,7 +2790,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
         <v>54</v>
@@ -2789,7 +2827,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
         <v>68</v>
@@ -2826,7 +2864,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="56" t="s">
         <v>58</v>
@@ -2863,7 +2901,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="56" t="s">
         <v>69</v>
@@ -2900,7 +2938,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="64" t="s">
         <v>70</v>
@@ -2937,7 +2975,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="20" t="s">
         <v>71</v>
@@ -2974,7 +3012,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="37"/>
       <c r="B45" s="38" t="s">
         <v>46</v>
@@ -3000,9 +3038,8 @@
         <f>SUM(I46:I46)</f>
         <v>8</v>
       </c>
-      <c r="J45" s="58" t="str">
-        <f>IF(COUNTIF(J46:J46, "Not Started") = COUNT(J46:J46), "Complete", "Not Started")</f>
-        <v>Not Started</v>
+      <c r="J45" s="58" t="s">
+        <v>76</v>
       </c>
       <c r="K45" s="21"/>
       <c r="L45" s="1"/>
@@ -3020,7 +3057,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
       <c r="B46" s="56" t="s">
         <v>73</v>
@@ -3039,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="60" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="1"/>
@@ -3057,7 +3094,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="37"/>
       <c r="B47" s="38" t="s">
         <v>47</v>
@@ -3083,11 +3120,10 @@
         <f>SUM(I48:I52)</f>
         <v>8</v>
       </c>
-      <c r="J47" s="58" t="str">
-        <f>IF(COUNTIF(J48:J52, "Not Started") = COUNT(J48:J52), "Complete", "Not Started")</f>
-        <v>Not Started</v>
-      </c>
-      <c r="K47" s="21"/>
+      <c r="J47" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="K47" s="19"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3103,7 +3139,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="56" t="s">
         <v>72</v>
@@ -3122,9 +3158,8 @@
         <v>2</v>
       </c>
       <c r="J48" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" s="19"/>
+        <v>87</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3140,7 +3175,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="56" t="s">
         <v>74</v>
@@ -3177,7 +3212,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="56" t="s">
         <v>39</v>
@@ -3214,7 +3249,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="41"/>
       <c r="B51" s="42" t="s">
         <v>24</v>
@@ -3253,7 +3288,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13"/>
       <c r="B52" s="36" t="s">
         <v>26</v>
@@ -3292,7 +3327,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3319,7 +3354,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3346,7 +3381,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3374,63 +3409,77 @@
       <c r="Y55" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:I14 K13:K52 A27:I27 A33:I33 A38:I38 A46 C46:I46 A47:I47 A48:A50 C48:I50">
-    <cfRule type="expression" dxfId="16" priority="9">
+  <conditionalFormatting sqref="A5:I14 A27:I27 A33:I33 A38:I38 A46 C46:I46 A47:I47 A48:A50 C48:I50 K13:K46 K49:K52">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>REGEXMATCH($J5,".*Complete.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>REGEXMATCH($J5,".*Overdue.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>REGEXMATCH($J5,".*Not Started.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>REGEXMATCH($J5,".*Cancelled.*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B21">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>REGEXMATCH($J17,".*Complete.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>REGEXMATCH($J17,".*Overdue.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>REGEXMATCH($J17,".*Not Started.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>REGEXMATCH($J17,".*Cancelled.*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J52">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"Overdue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5 A15:A21 C15:I21 A22:I22 A23:A26 C23:I26 A28:A32 C28:I32 A34:A37 C34:I37 A39:A43 C39:I43 A44:I45 A51:I52">
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>REGEXMATCH($J5,".*Complete.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="6" priority="19">
       <formula>REGEXMATCH($J5,".*Overdue.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="20">
+    <cfRule type="expression" dxfId="5" priority="20">
       <formula>REGEXMATCH($J5,".*Not Started.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="22">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>REGEXMATCH($J5,".*Cancelled.*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="expression" dxfId="3" priority="27">
+      <formula>REGEXMATCH($J48,".*Complete.*")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="28">
+      <formula>REGEXMATCH($J48,".*Overdue.*")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="29">
+      <formula>REGEXMATCH($J48,".*Not Started.*")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="30">
+      <formula>REGEXMATCH($J48,".*Cancelled.*")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3464,62 +3513,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="49" t="s">
         <v>27</v>
       </c>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Documentation\DocumentationDecryptionDystopia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\documentation\DocumentationDecryptionDystopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF9F5EF-2BE4-4605-B372-924F55647241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B801A273-C83E-4ABA-A7B5-A6CF6DCB44D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="4320" windowWidth="31605" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -1289,25 +1289,25 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="49.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="7" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="88.7265625" customWidth="1"/>
-    <col min="12" max="25" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="88.7109375" customWidth="1"/>
+    <col min="12" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1346,7 +1346,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1381,7 +1381,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1408,7 +1408,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1506,7 +1506,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="26" t="s">
         <v>36</v>
@@ -1544,7 +1544,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="26" t="s">
         <v>35</v>
@@ -1582,7 +1582,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
         <v>40</v>
@@ -1620,7 +1620,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="27" t="s">
         <v>31</v>
@@ -1658,7 +1658,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="27" t="s">
         <v>37</v>
@@ -1696,7 +1696,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="26" t="s">
         <v>38</v>
@@ -1734,7 +1734,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="27" t="s">
         <v>39</v>
@@ -1772,7 +1772,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
         <v>41</v>
@@ -1817,7 +1817,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="55" t="s">
         <v>48</v>
@@ -1856,7 +1856,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="56" t="s">
         <v>49</v>
@@ -1893,7 +1893,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="56" t="s">
         <v>50</v>
@@ -1930,7 +1930,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
         <v>51</v>
@@ -1967,7 +1967,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="27" t="s">
         <v>52</v>
@@ -2004,7 +2004,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="27" t="s">
         <v>53</v>
@@ -2041,7 +2041,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="27" t="s">
         <v>54</v>
@@ -2078,7 +2078,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="27" t="s">
         <v>55</v>
@@ -2115,7 +2115,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
         <v>42</v>
@@ -2160,7 +2160,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="56" t="s">
         <v>56</v>
@@ -2197,7 +2197,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="56" t="s">
         <v>57</v>
@@ -2234,7 +2234,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="56" t="s">
         <v>58</v>
@@ -2271,7 +2271,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
         <v>59</v>
@@ -2308,7 +2308,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
         <v>43</v>
@@ -2353,7 +2353,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
         <v>60</v>
@@ -2392,7 +2392,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="56" t="s">
         <v>79</v>
@@ -2431,7 +2431,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="56" t="s">
         <v>61</v>
@@ -2470,7 +2470,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="56" t="s">
         <v>62</v>
@@ -2507,7 +2507,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
         <v>63</v>
@@ -2544,7 +2544,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
         <v>44</v>
@@ -2591,7 +2591,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="65" t="s">
         <v>64</v>
@@ -2630,7 +2630,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="56" t="s">
         <v>65</v>
@@ -2667,7 +2667,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="56" t="s">
         <v>66</v>
@@ -2706,7 +2706,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="56" t="s">
         <v>67</v>
@@ -2745,7 +2745,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
         <v>45</v>
@@ -2790,7 +2790,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
         <v>54</v>
@@ -2827,7 +2827,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
         <v>68</v>
@@ -2864,7 +2864,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="56" t="s">
         <v>58</v>
@@ -2901,7 +2901,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="56" t="s">
         <v>69</v>
@@ -2938,7 +2938,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="64" t="s">
         <v>70</v>
@@ -2975,7 +2975,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="20" t="s">
         <v>71</v>
@@ -3012,7 +3012,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37"/>
       <c r="B45" s="38" t="s">
         <v>46</v>
@@ -3057,7 +3057,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="56" t="s">
         <v>73</v>
@@ -3094,7 +3094,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
       <c r="B47" s="38" t="s">
         <v>47</v>
@@ -3121,7 +3121,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="58" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="1"/>
@@ -3139,7 +3139,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="56" t="s">
         <v>72</v>
@@ -3158,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="60" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3175,7 +3175,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="56" t="s">
         <v>74</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="60" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="1"/>
@@ -3212,7 +3212,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="56" t="s">
         <v>39</v>
@@ -3231,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="60" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="1"/>
@@ -3249,7 +3249,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="42" t="s">
         <v>24</v>
@@ -3270,7 +3270,7 @@
       <c r="H51" s="47"/>
       <c r="I51" s="48"/>
       <c r="J51" s="60" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="K51" s="21"/>
       <c r="L51" s="1"/>
@@ -3288,7 +3288,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="36" t="s">
         <v>26</v>
@@ -3327,7 +3327,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3354,7 +3354,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3381,7 +3381,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3409,7 +3409,7 @@
       <c r="Y55" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:I14 A27:I27 A33:I33 A38:I38 A46 C46:I46 A47:I47 A48:A50 C48:I50 K13:K46 K49:K52">
+  <conditionalFormatting sqref="A5:I14 K13:K46 A27:I27 A33:I33 A38:I38 A46 C46:I46 A47:I47 A48:A50 C48:I50 K49:K52">
     <cfRule type="expression" dxfId="20" priority="9">
       <formula>REGEXMATCH($J5,".*Complete.*")</formula>
     </cfRule>
@@ -3513,62 +3513,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>27</v>
       </c>
